--- a/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -47,13 +47,16 @@
     <t>RaceFlag</t>
   </si>
   <si>
+    <t>BaseProperty</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>CharacterType</t>
   </si>
   <si>
-    <t>(map#sep=,|),int#ref=ItemConfigCategory,int</t>
+    <t>(map#sep=,|),int#ref=ItemConfigCategory,long</t>
   </si>
   <si>
     <t>long</t>
@@ -62,6 +65,9 @@
     <t>RaceType</t>
   </si>
   <si>
+    <t>int#ref=PropertyConfigCategory</t>
+  </si>
+  <si>
     <t>人类</t>
   </si>
   <si>
@@ -111,6 +117,9 @@
   </si>
   <si>
     <t>职业种族</t>
+  </si>
+  <si>
+    <t>基础属性包</t>
   </si>
   <si>
     <t>战士</t>
@@ -877,7 +886,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
@@ -894,6 +903,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
@@ -1320,10 +1332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1335,168 +1347,180 @@
     <col min="5" max="5" width="17.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="8" customWidth="1"/>
     <col min="7" max="15" width="9" style="8"/>
-    <col min="16" max="16384" width="9" style="9"/>
+    <col min="16" max="16" width="34.875" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
-      <c r="A2" s="12" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:16">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:15">
-      <c r="A3" s="14" t="s">
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:16">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="L3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="M3" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:15">
-      <c r="A4" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="10" t="s">
+      <c r="O3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:16">
+      <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="21" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="F5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7">
         <v>1000</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <v>1</v>
       </c>
       <c r="G6" s="8">
@@ -1521,24 +1545,27 @@
         <v>1</v>
       </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="21" t="s">
-        <v>31</v>
+      <c r="O6" s="31">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7">
         <v>1000</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>1</v>
       </c>
       <c r="G7" s="8"/>
@@ -1551,28 +1578,31 @@
       <c r="N7" s="8">
         <v>1</v>
       </c>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:16">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7">
         <v>1000</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="25">
         <v>1</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="31">
+      <c r="I8" s="32">
         <v>1</v>
       </c>
       <c r="J8" s="5"/>
@@ -1586,24 +1616,27 @@
       <c r="N8" s="5">
         <v>1</v>
       </c>
-      <c r="O8" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="21" t="s">
+      <c r="O8" s="33">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="7">
         <v>1000</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>1</v>
       </c>
       <c r="G9" s="8">
@@ -1612,7 +1645,7 @@
       <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="32">
         <v>1</v>
       </c>
       <c r="K9" s="8">
@@ -1624,22 +1657,25 @@
       <c r="N9" s="8">
         <v>1</v>
       </c>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="21" t="s">
-        <v>34</v>
+      <c r="O9" s="31"/>
+      <c r="P9" s="9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="7">
         <v>1000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>1</v>
       </c>
       <c r="G10" s="8">
@@ -1648,7 +1684,7 @@
       <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="8">
         <v>1</v>
       </c>
@@ -1661,54 +1697,60 @@
       <c r="N10" s="8">
         <v>1</v>
       </c>
-      <c r="O10" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="21" t="s">
-        <v>35</v>
+      <c r="O10" s="31">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" s="7">
         <v>1000</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="32"/>
       <c r="M11" s="8">
         <v>1</v>
       </c>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="21" t="s">
-        <v>36</v>
+      <c r="O11" s="31"/>
+      <c r="P11" s="9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7">
         <v>1000</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="32">
         <v>1</v>
       </c>
       <c r="J12" s="8">
@@ -1724,25 +1766,28 @@
       <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="21" t="s">
-        <v>37</v>
+      <c r="O12" s="31"/>
+      <c r="P12" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7">
         <v>1000</v>
       </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="I13" s="31"/>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="I13" s="32"/>
       <c r="J13" s="8">
         <v>1</v>
       </c>
@@ -1755,25 +1800,28 @@
       <c r="N13" s="8">
         <v>1</v>
       </c>
-      <c r="O13" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="21" t="s">
-        <v>38</v>
+      <c r="O13" s="31">
+        <v>1</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7">
         <v>1000</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="I14" s="31">
+      <c r="F14" s="23"/>
+      <c r="I14" s="32">
         <v>1</v>
       </c>
       <c r="J14" s="8">
@@ -1786,111 +1834,117 @@
         <v>1</v>
       </c>
       <c r="N14" s="8"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="21" t="s">
-        <v>39</v>
+      <c r="O14" s="31"/>
+      <c r="P14" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7">
         <v>1000</v>
       </c>
-      <c r="F15" s="25">
-        <v>1</v>
-      </c>
-      <c r="G15" s="26">
-        <v>1</v>
-      </c>
-      <c r="H15" s="26">
-        <v>1</v>
-      </c>
-      <c r="I15" s="33">
-        <v>1</v>
-      </c>
-      <c r="J15" s="26">
-        <v>1</v>
-      </c>
-      <c r="K15" s="26">
-        <v>1</v>
-      </c>
-      <c r="L15" s="26">
-        <v>1</v>
-      </c>
-      <c r="M15" s="26">
-        <v>1</v>
-      </c>
-      <c r="N15" s="26">
-        <v>1</v>
-      </c>
-      <c r="O15" s="34">
-        <v>1</v>
+      <c r="F15" s="26">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
+        <v>1</v>
+      </c>
+      <c r="H15" s="27">
+        <v>1</v>
+      </c>
+      <c r="I15" s="34">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27">
+        <v>1</v>
+      </c>
+      <c r="K15" s="27">
+        <v>1</v>
+      </c>
+      <c r="L15" s="27">
+        <v>1</v>
+      </c>
+      <c r="M15" s="27">
+        <v>1</v>
+      </c>
+      <c r="N15" s="27">
+        <v>1</v>
+      </c>
+      <c r="O15" s="35">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1002</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="23"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="23"/>
+      <c r="B35" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreateRoleConfigProto" sheetId="1" r:id="rId1"/>
@@ -1334,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -50,6 +50,9 @@
     <t>BaseProperty</t>
   </si>
   <si>
+    <t>TaskId</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>int#ref=PropertyConfigCategory</t>
   </si>
   <si>
+    <t>int#ref=TaskConfigCategory</t>
+  </si>
+  <si>
     <t>人类</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
   </si>
   <si>
     <t>基础属性包</t>
+  </si>
+  <si>
+    <t>初始任务编号</t>
   </si>
   <si>
     <t>战士</t>
@@ -1332,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1348,10 +1357,11 @@
     <col min="6" max="6" width="10.875" style="8" customWidth="1"/>
     <col min="7" max="15" width="9" style="8"/>
     <col min="16" max="16" width="34.875" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="10"/>
+    <col min="17" max="17" width="30.625" style="9" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1382,25 +1392,28 @@
       <c r="P1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:16">
+      <c r="Q1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:17">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1412,10 +1425,13 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:17">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -1424,40 +1440,41 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P3" s="15"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:16">
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:17">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1474,25 +1491,26 @@
       <c r="N4" s="20"/>
       <c r="O4" s="29"/>
       <c r="P4" s="18"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1504,18 +1522,21 @@
       <c r="N5" s="12"/>
       <c r="O5" s="30"/>
       <c r="P5" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7">
         <v>1000</v>
@@ -1551,16 +1572,19 @@
       <c r="P6" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="Q6" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7">
         <v>1000</v>
@@ -1582,17 +1606,20 @@
       <c r="P7" s="9">
         <v>1002</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:16">
+      <c r="Q7" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:17">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7">
         <v>1000</v>
@@ -1622,16 +1649,19 @@
       <c r="P8" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="Q8" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="7">
         <v>1000</v>
@@ -1661,16 +1691,19 @@
       <c r="P9" s="9">
         <v>1002</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="Q9" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7">
         <v>1000</v>
@@ -1703,16 +1736,19 @@
       <c r="P10" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="Q10" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7">
         <v>1000</v>
@@ -1729,16 +1765,19 @@
       <c r="P11" s="9">
         <v>1002</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="Q11" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7">
         <v>1000</v>
@@ -1770,16 +1809,19 @@
       <c r="P12" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="Q12" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7">
         <v>1000</v>
@@ -1806,16 +1848,19 @@
       <c r="P13" s="9">
         <v>1002</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="Q13" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="7">
         <v>1000</v>
@@ -1838,16 +1883,19 @@
       <c r="P14" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="Q14" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="7">
         <v>1000</v>
@@ -1884,6 +1932,9 @@
       </c>
       <c r="P15" s="9">
         <v>1002</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>1001</v>
       </c>
     </row>
     <row r="16" spans="2:2">

--- a/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25140" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="CreateRoleConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>ConfigId</t>
+  </si>
+  <si>
     <t>Items</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>CharacterType</t>
   </si>
   <si>
+    <t>int#ref=UnitConfigCategory</t>
+  </si>
+  <si>
     <t>(map#sep=,|),int#ref=ItemConfigCategory,long</t>
   </si>
   <si>
@@ -111,6 +117,9 @@
   </si>
   <si>
     <t>职业</t>
+  </si>
+  <si>
+    <t>基础配置id</t>
   </si>
   <si>
     <t>初始道具</t>
@@ -1341,27 +1350,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="8" customWidth="1"/>
-    <col min="7" max="15" width="9" style="8"/>
-    <col min="16" max="16" width="34.875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="30.625" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="10"/>
+    <col min="3" max="3" width="30.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="8" customWidth="1"/>
+    <col min="8" max="16" width="9" style="8"/>
+    <col min="17" max="17" width="34.875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="30.625" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1377,10 +1387,12 @@
       <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
@@ -1389,33 +1401,36 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="P1" s="12"/>
       <c r="Q1" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:17">
+      <c r="R1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:18">
       <c r="A2" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -1424,14 +1439,15 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="P2" s="14"/>
       <c r="Q2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:17">
+        <v>15</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:18">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -1439,49 +1455,50 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>16</v>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="15"/>
+      <c r="O3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="Q3" s="15"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:17">
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:18">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -1489,30 +1506,33 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="18"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:18">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -1520,31 +1540,32 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
+        <v>35</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="22">
+        <v>25001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="7">
         <v>1000</v>
       </c>
-      <c r="F6" s="23">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="G6" s="23">
         <v>1</v>
       </c>
       <c r="H6" s="8">
@@ -1565,275 +1586,296 @@
       <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="31">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1001</v>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="31">
+        <v>1</v>
       </c>
       <c r="Q6" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="7" spans="2:17">
+      <c r="R6" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="B7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="22">
+        <v>25001</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7">
         <v>1000</v>
       </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="8">
         <v>1</v>
       </c>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="9">
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="9">
         <v>1002</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="R7" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="1:17">
+    <row r="8" s="5" customFormat="1" spans="1:18">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="22">
+        <v>25001</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7">
         <v>1000</v>
       </c>
-      <c r="F8" s="25">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="32">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="32">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="5">
         <v>1</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="33">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9">
-        <v>1001</v>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="33">
+        <v>1</v>
       </c>
       <c r="Q8" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="R8" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="22">
+        <v>25001</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>1000</v>
       </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="G9" s="23">
         <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="32">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="32">
         <v>1</v>
       </c>
       <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="9">
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="9">
         <v>1002</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18">
       <c r="B10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="22">
+        <v>25001</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7">
         <v>1000</v>
       </c>
-      <c r="F10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="G10" s="23">
         <v>1</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="32"/>
       <c r="K10" s="8">
         <v>1</v>
       </c>
       <c r="L10" s="8">
         <v>1</v>
       </c>
-      <c r="N10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="31">
-        <v>1</v>
-      </c>
-      <c r="P10" s="9">
-        <v>1001</v>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="31">
+        <v>1</v>
       </c>
       <c r="Q10" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="11" spans="2:17">
+      <c r="R10" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
       <c r="B11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="22">
+        <v>25001</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7">
         <v>1000</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="M11" s="8">
-        <v>1</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="9">
+      <c r="G11" s="23"/>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="9">
         <v>1002</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="R11" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="B12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="22">
+        <v>25001</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="7">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7">
         <v>1000</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
+      <c r="G12" s="23"/>
       <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="32">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="32">
         <v>1</v>
       </c>
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8"/>
       <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="9">
-        <v>1001</v>
-      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="31"/>
       <c r="Q12" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="R12" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="22">
+        <v>25001</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7">
         <v>1000</v>
       </c>
-      <c r="F13" s="23">
-        <v>1</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="8">
         <v>1</v>
       </c>
       <c r="M13" s="8">
@@ -1842,77 +1884,83 @@
       <c r="N13" s="8">
         <v>1</v>
       </c>
-      <c r="O13" s="31">
-        <v>1</v>
-      </c>
-      <c r="P13" s="9">
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
         <v>1002</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="R13" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18">
       <c r="B14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="22">
+        <v>25001</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="7">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7">
         <v>1000</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="I14" s="32">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="G14" s="23"/>
+      <c r="J14" s="32">
         <v>1</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
       </c>
-      <c r="M14" s="8">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="9">
-        <v>1001</v>
-      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="31"/>
       <c r="Q14" s="9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="15" spans="2:17">
+      <c r="R14" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="C15" s="22">
+        <v>25001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7">
         <v>1000</v>
       </c>
-      <c r="F15" s="26">
-        <v>1</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <v>1</v>
       </c>
       <c r="H15" s="27">
         <v>1</v>
       </c>
-      <c r="I15" s="34">
-        <v>1</v>
-      </c>
-      <c r="J15" s="27">
+      <c r="I15" s="27">
+        <v>1</v>
+      </c>
+      <c r="J15" s="34">
         <v>1</v>
       </c>
       <c r="K15" s="27">
@@ -1927,81 +1975,104 @@
       <c r="N15" s="27">
         <v>1</v>
       </c>
-      <c r="O15" s="35">
-        <v>1</v>
-      </c>
-      <c r="P15" s="9">
+      <c r="O15" s="27">
+        <v>1</v>
+      </c>
+      <c r="P15" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
         <v>1002</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="R15" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:3">
       <c r="B16" s="24"/>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="24"/>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="24"/>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="24"/>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="24"/>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="24"/>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" s="24"/>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="24"/>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="24"/>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="24"/>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="24"/>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="24"/>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="24"/>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="24"/>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="C28" s="24"/>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="24"/>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" s="24"/>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="24"/>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="24"/>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32" s="24"/>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" s="24"/>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="24"/>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" s="24"/>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="24"/>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="G5:P5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="CreateRoleConfigProto" sheetId="1" r:id="rId1"/>
@@ -904,7 +904,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
@@ -917,13 +917,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
@@ -1353,7 +1347,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1361,712 +1355,705 @@
     <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
     <col min="3" max="3" width="30.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="48.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="8" customWidth="1"/>
-    <col min="8" max="16" width="9" style="8"/>
-    <col min="17" max="17" width="34.875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="30.625" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="10"/>
+    <col min="4" max="4" width="48.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="7" customWidth="1"/>
+    <col min="8" max="16" width="9" style="7"/>
+    <col min="17" max="17" width="34.875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="8" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:18">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="11" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:18">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="13" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:18">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:18">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:18">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="11" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>25001</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>1000</v>
       </c>
-      <c r="G6" s="23">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
         <v>1001</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>25001</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1000</v>
       </c>
-      <c r="G7" s="23">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1</v>
-      </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="9">
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="6">
         <v>1002</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:18">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>25001</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>1000</v>
       </c>
-      <c r="G8" s="25">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="32">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="G8" s="23">
+        <v>1</v>
+      </c>
+      <c r="J8" s="30">
+        <v>1</v>
+      </c>
       <c r="L8" s="5">
         <v>1</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="5"/>
       <c r="O8" s="5">
         <v>1</v>
       </c>
-      <c r="P8" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="P8" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
         <v>1001</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>25001</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1000</v>
       </c>
-      <c r="G9" s="23">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="32">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="9">
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="6">
         <v>1002</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>25001</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>1000</v>
       </c>
-      <c r="G10" s="23">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="9">
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
         <v>1001</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>25001</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>1000</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="N11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="9">
+      <c r="G11" s="21"/>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="6">
         <v>1002</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>25001</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>1000</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="32">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="9">
+      <c r="G12" s="21"/>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="6">
         <v>1001</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <v>25001</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>1000</v>
       </c>
-      <c r="G13" s="23">
-        <v>1</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="9">
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
         <v>1002</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="20">
         <v>25001</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>1000</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="J14" s="32">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="9">
+      <c r="G14" s="21"/>
+      <c r="J14" s="30">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="6">
         <v>1001</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="20">
         <v>25001</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>1000</v>
       </c>
-      <c r="G15" s="26">
-        <v>1</v>
-      </c>
-      <c r="H15" s="27">
-        <v>1</v>
-      </c>
-      <c r="I15" s="27">
-        <v>1</v>
-      </c>
-      <c r="J15" s="34">
-        <v>1</v>
-      </c>
-      <c r="K15" s="27">
-        <v>1</v>
-      </c>
-      <c r="L15" s="27">
-        <v>1</v>
-      </c>
-      <c r="M15" s="27">
-        <v>1</v>
-      </c>
-      <c r="N15" s="27">
-        <v>1</v>
-      </c>
-      <c r="O15" s="27">
-        <v>1</v>
-      </c>
-      <c r="P15" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="9">
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32">
+        <v>1</v>
+      </c>
+      <c r="K15" s="25">
+        <v>1</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1</v>
+      </c>
+      <c r="N15" s="25">
+        <v>1</v>
+      </c>
+      <c r="O15" s="25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6">
         <v>1002</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CreateRoleConfig.xlsx
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
